--- a/Distribution/Electrode_Rankings/electrodes_ranking.xlsx
+++ b/Distribution/Electrode_Rankings/electrodes_ranking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\fc_channelselection\distribution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\fc_channelselection\distribution\Electrode_Rankings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E27095-F19A-48C9-8399-B8DAB74FE37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE43F87-D557-4AE2-8DD7-1A27D115BC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ranking" sheetId="5" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="data_driven_mi" sheetId="4" r:id="rId3"/>
     <sheet name="data_driven_pcc" sheetId="2" r:id="rId4"/>
     <sheet name="data_driven_plv" sheetId="3" r:id="rId5"/>
+    <sheet name="data_driven_pcc_dm" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="74">
   <si>
     <t>electrodes</t>
   </si>
@@ -269,6 +270,9 @@
   <si>
     <t>mean</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcc_mean</t>
   </si>
 </sst>
 </file>
@@ -540,6 +544,61 @@
         <a:xfrm>
           <a:off x="3429000" y="82688"/>
           <a:ext cx="2508379" cy="7258156"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>508132</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>3557</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B99A412-FE0C-C0B5-7AE8-C5B74ABE43E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="0"/>
+          <a:ext cx="2565532" cy="7423532"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1907,7 +1966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5114,9 +5173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED6C7B9-DCB8-4A51-A636-E235D35DF19A}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6011,4 +6068,905 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621C6E08-CD24-4927-92AB-F2EE5477C4D7}">
+  <dimension ref="A1:D63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.35994500646069899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.338657832929665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.33430098423060201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.33389086932418899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.32947451523721399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.31979565941427701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.296319008553314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.29420502645753199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.28551059365563303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.28493152516773901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.28007159209022198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.27625949852847598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.25902372097567999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.257980853147041</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.244612050972633</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.23565448559555699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.233952247075255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>38</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.233045840785569</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.23256187980673201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.23247366719569099</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.22958516401111601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.22365815873539099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.223582501079716</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>43</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.22143574356714499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>20</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.21523300907048701</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>53</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.21386046722347099</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>52</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.19786222075872401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.187231241879489</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>54</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.18591019759014199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>11</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.184563193073777</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>24</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.18051098656321199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>42</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.177134992786769</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>15</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.17359202249465799</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>48</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.16502694746083901</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>51</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.16463387521298101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>30</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.164299969252091</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>39</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.16257316536429001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>58</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.15989821856436801</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>32</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.15942587374310199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>21</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.15926908516924601</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>23</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.157465438143127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.157458627235395</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.15530219285195099</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>12</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.15289921629725101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>33</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.15226353557700201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>31</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.150426536721121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.148868629760674</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>14</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.14311604748375101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.13356684480176301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>50</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.132995062354028</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>22</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.13031873088526</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>59</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.12836972853565401</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>40</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.126558251098178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>49</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.12503446755265299</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>13</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.12476593951585301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>56</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.12390304172241801</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.117547862061943</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>60</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.11571529689791001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.114592383773975</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>41</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.11339573186132799</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>61</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="1">
+        <v>-1.0881240030710599E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>57</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="1">
+        <v>-1.9465291994656499E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Distribution/Electrode_Rankings/electrodes_ranking.xlsx
+++ b/Distribution/Electrode_Rankings/electrodes_ranking.xlsx
@@ -5,20 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\fc_channelselection\distribution\Electrode_Rankings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\fc_channelselection\Distribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE43F87-D557-4AE2-8DD7-1A27D115BC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23454246-5346-4CCE-8D97-F6F781262105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ranking" sheetId="5" r:id="rId1"/>
-    <sheet name="label_driven_mi" sheetId="1" r:id="rId2"/>
-    <sheet name="data_driven_mi" sheetId="4" r:id="rId3"/>
-    <sheet name="data_driven_pcc" sheetId="2" r:id="rId4"/>
-    <sheet name="data_driven_plv" sheetId="3" r:id="rId5"/>
-    <sheet name="data_driven_pcc_dm" sheetId="6" r:id="rId6"/>
+    <sheet name="label_driven_mi_origin" sheetId="7" r:id="rId2"/>
+    <sheet name="label_driven_mi" sheetId="1" r:id="rId3"/>
+    <sheet name="data_driven_mi" sheetId="4" r:id="rId4"/>
+    <sheet name="data_driven_pcc" sheetId="2" r:id="rId5"/>
+    <sheet name="data_driven_plv" sheetId="3" r:id="rId6"/>
+    <sheet name="data_driven_pcc_dm" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,8 +33,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="74">
   <si>
     <t>electrodes</t>
   </si>
@@ -272,7 +271,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pcc_mean</t>
+    <t>index</t>
   </si>
 </sst>
 </file>
@@ -322,7 +321,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1963,6 +1962,909 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99AE29D4-638D-4C81-8AC6-D9273822ACF9}">
+  <dimension ref="A1:F63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.37998964273791003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.39501863216038302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.28220800081981101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.29159819798258102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.39385541330393198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.126749797055036</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.25108841387311098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.21828314543282401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.22594313621092099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.24288638487007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.29795348201607602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.189593073694062</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="1">
+        <v>9.1461063886485602E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.162750135847713</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.11025307455266101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.16793722951878801</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.23885891958349301</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.29054575543065903</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.36065330242247901</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.32293630030036602</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.11238893962264999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.16824648341354401</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1">
+        <v>23</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.22291550348957201</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1">
+        <v>24</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1">
+        <v>25</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.22529290800829099</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1">
+        <v>26</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.28893458956930901</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="1">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.32984379121021401</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1">
+        <v>28</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.14186591079376601</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1">
+        <v>29</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.26955254535379403</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="1">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1">
+        <v>30</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.27393654547321999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="1">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1">
+        <v>31</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.21007932507690599</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="1">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1">
+        <v>32</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.64106290935922805</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="1">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1">
+        <v>33</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.64382689087752698</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="1">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1">
+        <v>34</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.25417316561666298</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="1">
+        <v>35</v>
+      </c>
+      <c r="C36" s="1">
+        <v>35</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.30721420897482199</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="1">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1">
+        <v>36</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.22085510225611801</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="1">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1">
+        <v>37</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="1">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1">
+        <v>38</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.32853775553462899</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="1">
+        <v>39</v>
+      </c>
+      <c r="C40" s="1">
+        <v>39</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.28285403983590701</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="1">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1">
+        <v>40</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.27595337497008898</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="1">
+        <v>41</v>
+      </c>
+      <c r="C42" s="1">
+        <v>41</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.252992354359798</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="1">
+        <v>42</v>
+      </c>
+      <c r="C43" s="1">
+        <v>42</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.475885938823018</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="1">
+        <v>43</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.29112712936236801</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="1">
+        <v>44</v>
+      </c>
+      <c r="C45" s="1">
+        <v>44</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.32956542012499501</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="1">
+        <v>45</v>
+      </c>
+      <c r="C46" s="1">
+        <v>45</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.238709513226182</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="1">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1">
+        <v>46</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.25373892015933502</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="1">
+        <v>47</v>
+      </c>
+      <c r="C48" s="1">
+        <v>47</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.26825585517670397</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="1">
+        <v>48</v>
+      </c>
+      <c r="C49" s="1">
+        <v>48</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.34519072630224501</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="1">
+        <v>49</v>
+      </c>
+      <c r="C50" s="1">
+        <v>49</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.30933630799293499</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="1">
+        <v>50</v>
+      </c>
+      <c r="C51" s="1">
+        <v>50</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.31421949090245199</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="1">
+        <v>51</v>
+      </c>
+      <c r="C52" s="1">
+        <v>51</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.25751078897697099</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="1">
+        <v>52</v>
+      </c>
+      <c r="C53" s="1">
+        <v>52</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.280588117119491</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="1">
+        <v>53</v>
+      </c>
+      <c r="C54" s="1">
+        <v>53</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.15415151806855901</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="1">
+        <v>54</v>
+      </c>
+      <c r="C55" s="1">
+        <v>54</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.225919610089451</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="1">
+        <v>55</v>
+      </c>
+      <c r="C56" s="1">
+        <v>55</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.145746168327575</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="1">
+        <v>56</v>
+      </c>
+      <c r="C57" s="1">
+        <v>56</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0.21309415084908601</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="1">
+        <v>57</v>
+      </c>
+      <c r="C58" s="1">
+        <v>57</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0.26920675462254001</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="1">
+        <v>58</v>
+      </c>
+      <c r="C59" s="1">
+        <v>58</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0.25479287383400101</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="1">
+        <v>59</v>
+      </c>
+      <c r="C60" s="1">
+        <v>59</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0.21239600012666801</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="1">
+        <v>60</v>
+      </c>
+      <c r="C61" s="1">
+        <v>60</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0.20335038469734501</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="1">
+        <v>61</v>
+      </c>
+      <c r="C62" s="1">
+        <v>61</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0.13017216749803501</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="1">
+        <v>62</v>
+      </c>
+      <c r="C63" s="1">
+        <v>62</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0.43670108947424202</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G63"/>
   <sheetViews>
@@ -3365,13 +4267,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3DDEB4-DC88-4FC8-A483-D19AAFAC10A6}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4267,13 +5167,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477FBDDC-C8EB-42DD-A3AC-0BD12519E51F}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5169,11 +6067,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED6C7B9-DCB8-4A51-A636-E235D35DF19A}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6070,7 +6968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621C6E08-CD24-4927-92AB-F2EE5477C4D7}">
   <dimension ref="A1:D63"/>
   <sheetViews>
@@ -6092,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">

--- a/Distribution/Electrode_Rankings/electrodes_ranking.xlsx
+++ b/Distribution/Electrode_Rankings/electrodes_ranking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\fc_channelselection\Distribution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\fc_channelselection\Distribution\Electrode_Rankings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23454246-5346-4CCE-8D97-F6F781262105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12526D61-9483-40AD-BFB9-89F84AE8CAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ranking" sheetId="5" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="data_driven_pcc" sheetId="2" r:id="rId5"/>
     <sheet name="data_driven_plv" sheetId="3" r:id="rId6"/>
     <sheet name="data_driven_pcc_dm" sheetId="6" r:id="rId7"/>
+    <sheet name="modeled_sigmoid" sheetId="8" r:id="rId8"/>
+    <sheet name="modeled_g_gaussian" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="76">
   <si>
     <t>electrodes</t>
   </si>
@@ -272,6 +274,14 @@
   </si>
   <si>
     <t>index</t>
+  </si>
+  <si>
+    <t>modeled_sigmoid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modeled_gaussian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -609,6 +619,192 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>70525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CDF3468-8100-76D8-2A54-CC9A29C5A456}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="0"/>
+          <a:ext cx="7534275" cy="2966125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>13601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B504DD6-C83C-C771-1BE8-6FD31AAAE420}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429001" y="3248025"/>
+          <a:ext cx="6210300" cy="4909451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>682597</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D108EC6-7205-2659-0E65-1A51D8208710}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="3257550"/>
+          <a:ext cx="6168997" cy="4876800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>74275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9800CBCC-AB66-E759-017A-BB0B1AA894C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="0"/>
+          <a:ext cx="7543800" cy="2969875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -872,16 +1068,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFAF64A-5DEA-4FD4-B8E4-1ED29CE4150B}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -900,8 +1096,14 @@
       <c r="F1" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -917,8 +1119,14 @@
       <c r="F2" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="1">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -934,8 +1142,14 @@
       <c r="F3" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="1">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -951,8 +1165,14 @@
       <c r="F4" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="1">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -968,8 +1188,14 @@
       <c r="F5" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="1">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -985,8 +1211,14 @@
       <c r="F6" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="1">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1002,8 +1234,14 @@
       <c r="F7" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="1">
+        <v>39</v>
+      </c>
+      <c r="H7" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1019,8 +1257,14 @@
       <c r="F8" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="1">
+        <v>21</v>
+      </c>
+      <c r="H8" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1036,8 +1280,14 @@
       <c r="F9" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="1">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1053,8 +1303,14 @@
       <c r="F10" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="1">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1070,8 +1326,14 @@
       <c r="F11" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="1">
+        <v>9</v>
+      </c>
+      <c r="H11" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1087,8 +1349,14 @@
       <c r="F12" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1104,8 +1372,14 @@
       <c r="F13" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="1">
+        <v>29</v>
+      </c>
+      <c r="H13" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1121,8 +1395,14 @@
       <c r="F14" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="1">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1138,8 +1418,14 @@
       <c r="F15" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="1">
+        <v>16</v>
+      </c>
+      <c r="H15" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1155,8 +1441,14 @@
       <c r="F16" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="1">
+        <v>48</v>
+      </c>
+      <c r="H16" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1172,8 +1464,14 @@
       <c r="F17" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="1">
+        <v>57</v>
+      </c>
+      <c r="H17" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1189,8 +1487,14 @@
       <c r="F18" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="1">
+        <v>24</v>
+      </c>
+      <c r="H18" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1206,8 +1510,14 @@
       <c r="F19" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="1">
+        <v>6</v>
+      </c>
+      <c r="H19" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1223,8 +1533,14 @@
       <c r="F20" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1240,8 +1556,14 @@
       <c r="F21" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="1">
+        <v>34</v>
+      </c>
+      <c r="H21" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1257,8 +1579,14 @@
       <c r="F22" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="1">
+        <v>38</v>
+      </c>
+      <c r="H22" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1274,8 +1602,14 @@
       <c r="F23" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="1">
+        <v>15</v>
+      </c>
+      <c r="H23" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1291,8 +1625,14 @@
       <c r="F24" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="1">
+        <v>43</v>
+      </c>
+      <c r="H24" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1308,8 +1648,14 @@
       <c r="F25" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="1">
+        <v>61</v>
+      </c>
+      <c r="H25" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1325,8 +1671,14 @@
       <c r="F26" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="1">
+        <v>25</v>
+      </c>
+      <c r="H26" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1342,8 +1694,14 @@
       <c r="F27" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="1">
+        <v>42</v>
+      </c>
+      <c r="H27" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1359,8 +1717,14 @@
       <c r="F28" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="1">
+        <v>60</v>
+      </c>
+      <c r="H28" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1376,8 +1740,14 @@
       <c r="F29" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="1">
+        <v>54</v>
+      </c>
+      <c r="H29" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1393,8 +1763,14 @@
       <c r="F30" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="1">
+        <v>41</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1410,8 +1786,14 @@
       <c r="F31" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="1">
+        <v>47</v>
+      </c>
+      <c r="H31" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1427,8 +1809,14 @@
       <c r="F32" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="1">
+        <v>56</v>
+      </c>
+      <c r="H32" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1444,8 +1832,14 @@
       <c r="F33" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="1">
+        <v>51</v>
+      </c>
+      <c r="H33" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1461,8 +1855,14 @@
       <c r="F34" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="1">
+        <v>59</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1478,8 +1878,14 @@
       <c r="F35" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="1">
+        <v>53</v>
+      </c>
+      <c r="H35" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1495,8 +1901,14 @@
       <c r="F36" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="1">
+        <v>49</v>
+      </c>
+      <c r="H36" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1512,8 +1924,14 @@
       <c r="F37" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="1">
+        <v>52</v>
+      </c>
+      <c r="H37" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1529,8 +1947,14 @@
       <c r="F38" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" s="1">
+        <v>50</v>
+      </c>
+      <c r="H38" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1546,8 +1970,14 @@
       <c r="F39" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="1">
+        <v>40</v>
+      </c>
+      <c r="H39" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1563,8 +1993,14 @@
       <c r="F40" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="1">
+        <v>19</v>
+      </c>
+      <c r="H40" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1580,8 +2016,14 @@
       <c r="F41" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1597,8 +2039,14 @@
       <c r="F42" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1614,8 +2062,14 @@
       <c r="F43" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" s="1">
+        <v>13</v>
+      </c>
+      <c r="H43" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1631,8 +2085,14 @@
       <c r="F44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" s="1">
+        <v>22</v>
+      </c>
+      <c r="H44" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1648,8 +2108,14 @@
       <c r="F45" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" s="1">
+        <v>17</v>
+      </c>
+      <c r="H45" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1665,8 +2131,14 @@
       <c r="F46" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" s="1">
+        <v>2</v>
+      </c>
+      <c r="H46" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1682,8 +2154,14 @@
       <c r="F47" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" s="1">
+        <v>14</v>
+      </c>
+      <c r="H47" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1699,8 +2177,14 @@
       <c r="F48" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" s="1">
+        <v>58</v>
+      </c>
+      <c r="H48" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1716,8 +2200,14 @@
       <c r="F49" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49" s="1">
+        <v>31</v>
+      </c>
+      <c r="H49" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1733,8 +2223,14 @@
       <c r="F50" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50" s="1">
+        <v>32</v>
+      </c>
+      <c r="H50" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1750,8 +2246,14 @@
       <c r="F51" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51" s="1">
+        <v>46</v>
+      </c>
+      <c r="H51" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1767,8 +2269,14 @@
       <c r="F52" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52" s="1">
+        <v>23</v>
+      </c>
+      <c r="H52" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1784,8 +2292,14 @@
       <c r="F53" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53" s="1">
+        <v>35</v>
+      </c>
+      <c r="H53" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1801,8 +2315,14 @@
       <c r="F54" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54" s="1">
+        <v>37</v>
+      </c>
+      <c r="H54" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1818,8 +2338,14 @@
       <c r="F55" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55" s="1">
+        <v>28</v>
+      </c>
+      <c r="H55" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1835,8 +2361,14 @@
       <c r="F56" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56" s="1">
+        <v>45</v>
+      </c>
+      <c r="H56" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1852,8 +2384,14 @@
       <c r="F57" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57" s="1">
+        <v>55</v>
+      </c>
+      <c r="H57" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1869,8 +2407,14 @@
       <c r="F58" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58" s="1">
+        <v>18</v>
+      </c>
+      <c r="H58" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1886,8 +2430,14 @@
       <c r="F59" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59" s="1">
+        <v>44</v>
+      </c>
+      <c r="H59" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1903,8 +2453,14 @@
       <c r="F60" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60" s="1">
+        <v>26</v>
+      </c>
+      <c r="H60" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1920,8 +2476,14 @@
       <c r="F61" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61" s="1">
+        <v>36</v>
+      </c>
+      <c r="H61" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1937,8 +2499,14 @@
       <c r="F62" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62" s="1">
+        <v>5</v>
+      </c>
+      <c r="H62" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -1953,6 +2521,12 @@
       </c>
       <c r="F63" s="1">
         <v>5</v>
+      </c>
+      <c r="G63" s="1">
+        <v>27</v>
+      </c>
+      <c r="H63" s="1">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1965,7 +2539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99AE29D4-638D-4C81-8AC6-D9273822ACF9}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1992,10 +2566,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -2006,10 +2580,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -2020,10 +2594,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>24</v>
@@ -2034,10 +2608,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
@@ -2048,10 +2622,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
@@ -2062,10 +2636,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>58</v>
@@ -2076,10 +2650,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>36</v>
@@ -2090,10 +2664,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>45</v>
@@ -2104,10 +2678,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>40</v>
@@ -2118,10 +2692,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>37</v>
@@ -2132,10 +2706,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>18</v>
@@ -2146,10 +2720,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>50</v>
@@ -2160,10 +2734,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>61</v>
@@ -2174,10 +2748,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>53</v>
@@ -2188,10 +2762,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>60</v>
@@ -2202,10 +2776,10 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>52</v>
@@ -2216,10 +2790,10 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>38</v>
@@ -2230,10 +2804,10 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>21</v>
@@ -2244,10 +2818,10 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>9</v>
@@ -2258,10 +2832,10 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>14</v>
@@ -2272,10 +2846,10 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>59</v>
@@ -2286,10 +2860,10 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>51</v>
@@ -2300,10 +2874,10 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>43</v>
@@ -2314,10 +2888,10 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>1</v>
@@ -2328,10 +2902,10 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>42</v>
@@ -2342,10 +2916,10 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>22</v>
@@ -2356,10 +2930,10 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>11</v>
@@ -2370,10 +2944,10 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>56</v>
@@ -2384,10 +2958,10 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>28</v>
@@ -2398,10 +2972,10 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>27</v>
@@ -2412,10 +2986,10 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>48</v>
@@ -2426,10 +3000,10 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>3</v>
@@ -2440,10 +3014,10 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>2</v>
@@ -2454,10 +3028,10 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>33</v>
@@ -2468,10 +3042,10 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>17</v>
@@ -2482,10 +3056,10 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>44</v>
@@ -2496,10 +3070,10 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>62</v>
@@ -2510,10 +3084,10 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>13</v>
@@ -2524,10 +3098,10 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>23</v>
@@ -2538,10 +3112,10 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>26</v>
@@ -2552,10 +3126,10 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>35</v>
@@ -2566,10 +3140,10 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>4</v>
@@ -2580,10 +3154,10 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>20</v>
@@ -2594,10 +3168,10 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>12</v>
@@ -2608,10 +3182,10 @@
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>39</v>
@@ -2622,10 +3196,10 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>34</v>
@@ -2636,10 +3210,10 @@
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>30</v>
@@ -2650,10 +3224,10 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>10</v>
@@ -2664,10 +3238,10 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>16</v>
@@ -2678,10 +3252,10 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>15</v>
@@ -2692,10 +3266,10 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>31</v>
@@ -2706,10 +3280,10 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>25</v>
@@ -2720,10 +3294,10 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>54</v>
@@ -2734,10 +3308,10 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>41</v>
@@ -2748,10 +3322,10 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>55</v>
@@ -2762,10 +3336,10 @@
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>46</v>
@@ -2776,10 +3350,10 @@
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C58" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>29</v>
@@ -2790,10 +3364,10 @@
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C59" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>32</v>
@@ -2804,10 +3378,10 @@
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C60" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>47</v>
@@ -2818,10 +3392,10 @@
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>49</v>
@@ -2832,10 +3406,10 @@
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>57</v>
@@ -2846,10 +3420,10 @@
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C63" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>5</v>
@@ -4271,7 +4845,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3DDEB4-DC88-4FC8-A483-D19AAFAC10A6}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7867,4 +8443,1805 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814A66B6-47F5-4D38-A129-A3D3B97302D9}">
+  <dimension ref="A1:F63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-0.73799400000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-0.74897800000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-0.75180400000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-0.77252100000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-0.77543200000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-0.79383999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-0.80223800000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-0.80563600000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-0.80594100000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-0.81074299999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-0.81182500000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-0.82894199999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-0.82996899999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-0.83331900000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-0.83347199999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-0.83355000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-0.83788499999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-0.839557</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-0.84617100000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-0.84795799999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>38</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-0.84987900000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-0.85946500000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>43</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-0.86583100000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>61</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-0.86760000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-0.87123300000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>42</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-0.88137399999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>60</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-0.88876900000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>54</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-0.89638899999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>41</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-0.89712599999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>47</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1">
+        <v>-0.92129399999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>56</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1">
+        <v>-0.92459400000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>51</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-0.93575399999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>59</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-0.93901599999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>53</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-0.94176099999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>49</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-0.94204399999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>52</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-0.942519</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>50</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="1">
+        <v>-0.95934900000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>40</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="1">
+        <v>-0.95977199999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>19</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="1">
+        <v>-0.96691499999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1">
+        <v>-0.97203700000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1">
+        <v>-0.98550400000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>13</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="1">
+        <v>-0.99393500000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>22</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="1">
+        <v>-1.0013000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>17</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="1">
+        <v>-1.03108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="1">
+        <v>-1.0423899999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>14</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="1">
+        <v>-1.04834</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>58</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="1">
+        <v>-1.0551999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>31</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1">
+        <v>-1.0629500000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>32</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1">
+        <v>-1.08077</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>46</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="1">
+        <v>-1.08474</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>23</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>-1.08812</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>35</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="1">
+        <v>-1.09995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>37</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="1">
+        <v>-1.1323099999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>28</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="1">
+        <v>-1.18015</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>45</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="1">
+        <v>-1.19872</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>55</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="1">
+        <v>-1.2620199999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>18</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="1">
+        <v>-1.27722</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>44</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="1">
+        <v>-1.2942199999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>26</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="1">
+        <v>-1.33344</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>36</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" s="1">
+        <v>-1.37896</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>5</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="1">
+        <v>-1.47374</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>27</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" s="1">
+        <v>-1.49594</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EAFD91-6FDD-4E7B-8AEB-0969C16E2F78}">
+  <dimension ref="A1:D63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-0.68132599999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-0.68982699999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-0.708708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-0.71575599999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-0.71599599999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-0.72199999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-0.767432</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-0.76957699999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-0.77654000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-0.78383000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-0.78642999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-0.78888000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-0.79664900000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-0.80477699999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-0.81232700000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-0.81735500000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-0.82128599999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-0.82751399999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-0.83095799999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-0.83143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>38</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-0.83247499999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-0.86903900000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>48</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-0.88529500000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>19</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-0.90429000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-0.91323900000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>42</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-0.92286699999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>57</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-0.93002200000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>54</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-0.93906000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-0.948322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>61</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1">
+        <v>-0.95650999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>53</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="1">
+        <v>-0.95657700000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>17</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-0.95757000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-0.96019299999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>52</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-0.97586200000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>41</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-0.98143000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>60</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-0.98394400000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>13</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="1">
+        <v>-0.98895900000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>51</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="1">
+        <v>-1.00177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="1">
+        <v>-1.00657</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>22</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="1">
+        <v>-1.01013</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>40</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="1">
+        <v>-1.01128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>56</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="1">
+        <v>-1.0119499999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>49</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="1">
+        <v>-1.0170300000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>59</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="1">
+        <v>-1.0263500000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>50</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="1">
+        <v>-1.0396399999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="1">
+        <v>-1.04237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>14</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="1">
+        <v>-1.04908</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>31</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1">
+        <v>-1.08196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>35</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="1">
+        <v>-1.0972</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>23</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>-1.10314</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>32</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1">
+        <v>-1.1107499999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>58</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="1">
+        <v>-1.1178900000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>37</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="1">
+        <v>-1.125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>45</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="1">
+        <v>-1.1382399999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>28</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="1">
+        <v>-1.18154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>18</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="1">
+        <v>-1.2151099999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>44</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="1">
+        <v>-1.2319800000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>55</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="1">
+        <v>-1.27948</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>26</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="1">
+        <v>-1.3246500000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>36</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" s="1">
+        <v>-1.4127000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>5</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="1">
+        <v>-1.45506</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>27</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" s="1">
+        <v>-1.58636</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Distribution/Electrode_Rankings/electrodes_ranking.xlsx
+++ b/Distribution/Electrode_Rankings/electrodes_ranking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\fc_channelselection\Distribution\Electrode_Rankings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12526D61-9483-40AD-BFB9-89F84AE8CAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C9A8CD-8B85-485B-8783-D06087899308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ranking" sheetId="5" r:id="rId1"/>
@@ -1070,7 +1070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFAF64A-5DEA-4FD4-B8E4-1ED29CE4150B}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2539,7 +2539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99AE29D4-638D-4C81-8AC6-D9273822ACF9}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
